--- a/src/test/resources/user.xlsx
+++ b/src/test/resources/user.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\AliXI\easyexcel-master\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="第一个sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>姓名</t>
   </si>
@@ -396,13 +397,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
